--- a/test1ignore-expected.xlsx
+++ b/test1ignore-expected.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,11 +771,7 @@
           <t>roundish</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>red-orange</t>
-        </is>
-      </c>
+      <c r="G14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1204,36 +1200,6 @@
           <t>salmon</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr"/>
-      <c r="D27" s="1" t="inlineStr"/>
-      <c r="E27" s="1" t="inlineStr"/>
-      <c r="F27" s="1" t="inlineStr"/>
-      <c r="G27" s="1" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr"/>
-      <c r="D28" s="1" t="inlineStr"/>
-      <c r="E28" s="1" t="inlineStr"/>
-      <c r="F28" s="1" t="inlineStr"/>
-      <c r="G28" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
